--- a/biology/Botanique/Capnodium/Capnodium.xlsx
+++ b/biology/Botanique/Capnodium/Capnodium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Capnodium est un genre de champignons ascomycètes de la famille des Capnodiaceae.
-Ce genre a été défini en 1849 par le mycologue français Camille Montagne avec Capnodium salicinum comme  espèce type[2]. C'est un des responsables de la fumagine.
+Ce genre a été défini en 1849 par le mycologue français Camille Montagne avec Capnodium salicinum comme  espèce type. C'est un des responsables de la fumagine.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (30 mars 2016)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (30 mars 2016) :
 Capnodium acokantherae Bacc., 1907
 Capnodium annonae Pat., 1904
 Capnodium australe Mont., 1849
@@ -551,7 +565,7 @@
 Capnodium uniseptatum (L.R. Fraser) S. Hughes, 1981
 Capnodium usteri Rehm, 1907
 Capnodium walteri Sacc., 1893
-Selon Index Fungorum                                      (30 mars 2016)[4] :
+Selon Index Fungorum                                      (30 mars 2016) :
 Capnodium acokantherae Bacc. 1907
 Capnodium annonae Pat. 1904
 Capnodium armeniacae Thüm. 1888
